--- a/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
+++ b/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interfacde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219FA6D7-BDCD-457E-B6FC-AEB453387CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC3CEC4-265C-486F-8A92-1C611AAA922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yml 샘플</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-01-01  14:25:39</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,6 +331,51 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mlid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priorityClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API에서 제공하는 노드 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API에서 제공하는 클러스터 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticalPriority|highPriority|
+mediumPriority|lowPriority|veryLowPriority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청원본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64 string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,36 +420,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mlid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priorityClass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API에서 제공하는 노드 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API에서 제공하는 클러스터 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위 클래스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>criticalPriority|highPriority|
-mediumPriority|lowPriority|veryLowPriority</t>
+    <t>샘플</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1164,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B565A37C-2E95-462B-A7DF-C3508ECBB9CB}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1222,7 +1234,7 @@
         <v>30</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1243,7 +1255,7 @@
         <v>0.1</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1312,7 +1324,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="16"/>
     </row>
@@ -1797,13 +1809,13 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="5"/>
@@ -1812,7 +1824,7 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="2"/>
@@ -1821,7 +1833,7 @@
         <v>62</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="16"/>
@@ -1829,44 +1841,42 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C39" s="11"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
-        <v>57</v>
+      <c r="B40" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="5">
-        <v>123</v>
-      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>40</v>
@@ -1876,101 +1886,120 @@
       </c>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="5">
+        <v>123</v>
+      </c>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="5"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="9"/>
+      <c r="F45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="5"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="F47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="3"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="17"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="I4:I47"/>
+    <mergeCell ref="I4:I48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
+++ b/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC3CEC4-265C-486F-8A92-1C611AAA922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F9EE1B-156B-481B-8567-6DBD284D5F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>maxReplicas</t>
-  </si>
-  <si>
-    <t>isNetworking</t>
   </si>
   <si>
     <t>predictedExecutionTime</t>
@@ -227,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네트워크 사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>워크로드 전체 크기: MiB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,36 +335,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>API에서 제공하는 노드 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>API에서 제공하는 클러스터 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위 클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>criticalPriority|highPriority|
 mediumPriority|lowPriority|veryLowPriority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>originRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청원본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64 string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,6 +386,34 @@
   </si>
   <si>
     <t>샘플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML 워크로드 배포에 사용될 yaml 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본요청 json base64encoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API에서 제공하는 노드 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,9 +597,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1176,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B565A37C-2E95-462B-A7DF-C3508ECBB9CB}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1196,16 +1186,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1217,24 +1207,24 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1246,16 +1236,16 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="5">
         <v>0.1</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>89</v>
+      <c r="I4" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1269,7 +1259,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1280,15 +1270,15 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1299,15 +1289,15 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1318,30 +1308,30 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="16"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -1352,15 +1342,15 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -1373,20 +1363,20 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1397,15 +1387,15 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="5">
         <v>100</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -1416,15 +1406,15 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="5">
         <v>128</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -1435,15 +1425,15 @@
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -1454,15 +1444,15 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="5">
         <v>1000</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -1470,14 +1460,14 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="16"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
@@ -1490,13 +1480,13 @@
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="5">
         <v>200</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
@@ -1507,13 +1497,13 @@
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5">
         <v>256</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
@@ -1524,13 +1514,13 @@
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="5">
         <v>0</v>
       </c>
-      <c r="I20" s="16"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -1541,249 +1531,247 @@
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="5">
         <v>2000</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="16"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="F23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="5">
+        <v>10</v>
+      </c>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="5">
+        <v>500</v>
+      </c>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H25" s="5">
+        <v>600</v>
+      </c>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="5">
-        <v>12</v>
-      </c>
-      <c r="I27" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="5">
-        <v>534.12</v>
-      </c>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="H28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="5">
-        <v>10</v>
-      </c>
-      <c r="I29" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="H30" s="5">
+        <v>12</v>
+      </c>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H31" s="5">
-        <v>500</v>
-      </c>
-      <c r="I31" s="16"/>
+        <v>534.12</v>
+      </c>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="5">
-        <v>600</v>
-      </c>
-      <c r="I32" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="16"/>
+      <c r="F33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="16"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1791,215 +1779,205 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="16"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="2"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="16"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="16"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="11"/>
+      <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="16"/>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="11"/>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="16"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="10" t="s">
-        <v>76</v>
+      <c r="B40" s="10"/>
+      <c r="C40" t="s">
+        <v>2</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="16"/>
+      <c r="F40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41" s="5">
         <v>123</v>
       </c>
-      <c r="I41" s="16"/>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H42" s="5">
         <v>123</v>
       </c>
-      <c r="I42" s="16"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>85</v>
+        <v>57</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="16"/>
-    </row>
-    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="16"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="16"/>
+      <c r="F46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="3"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="5"/>
       <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="I4:I48"/>
+    <mergeCell ref="I4:I47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
+++ b/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F9EE1B-156B-481B-8567-6DBD284D5F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157BA599-C167-4A29-96CF-2B6030471A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스 규격 0.1" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>isCronJob</t>
-  </si>
-  <si>
-    <t>devOpsType</t>
   </si>
   <si>
     <t>maxReplicas</t>
@@ -303,14 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요하면 추가 해주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,51 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>version: 0.1
-request:
-  name: "ml workload"
-  id: "uuid"
-  date: "2024-01-01 14:25:39"
-  containers:
-    - name: "abcdefg"
-      resources:
-        requests:
-          cpu: 100
-          memory: 128
-          gpu: 0
-          ephemeral-storage: 1000
-        limits:
-          cpu: 200
-          memory: 256
-          gpu: 0
-          ephemeral-storage: 2000
-  attribute:
-    workloadType: "ML"
-    isCronJob: true
-    devOpsType: "DEV"
-    cudaVersion: 12.0
-    gpuDriverVersion: 534.12
-    maxReplicas: 10
-    isNetworking: true
-    totalSize: 500
-    predictedExecutionTime: 600
-    userId: "user123"
-response:
-  code: 10000
-  message: "성공"
-  result:
-    cluster: "123"
-    node: "123"
-    priority: 100000
-    preemptionPolicy: "Never"
-  date: "2024-01-01  14:25:59"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샘플</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ML 워크로드 배포에 사용될 yaml 파일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,6 +358,26 @@
   </si>
   <si>
     <t>yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devOpsType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workloadFeature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크로드 시나리오 특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크로드특성요청 API 참고(workload_feature)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 결과중 선택된 level값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,14 +436,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Bitstream Vera Sans Mono"/>
       <family val="3"/>
@@ -499,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -529,34 +485,8 @@
       <right style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </right>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -565,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,16 +520,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -608,14 +535,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +559,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1166,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B565A37C-2E95-462B-A7DF-C3508ECBB9CB}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1181,23 +1102,22 @@
     <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.125" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1206,28 +1126,25 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1236,19 +1153,16 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="5">
         <v>0.1</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1259,9 +1173,8 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -1270,17 +1183,16 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1289,17 +1201,16 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -1308,32 +1219,30 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -1342,17 +1251,16 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -1363,22 +1271,20 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1387,17 +1293,16 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="5">
         <v>100</v>
       </c>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1406,17 +1311,16 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="5">
         <v>128</v>
       </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1425,17 +1329,16 @@
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1444,242 +1347,232 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="5">
         <v>1000</v>
       </c>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="5">
-        <v>200</v>
-      </c>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5">
-        <v>256</v>
-      </c>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="5">
-        <v>10</v>
-      </c>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" s="5">
-        <v>500</v>
-      </c>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="5">
-        <v>600</v>
-      </c>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="F26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -1691,149 +1584,144 @@
         <v>49</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" s="5">
-        <v>12</v>
-      </c>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>534.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="5">
-        <v>534.12</v>
-      </c>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="H37" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1841,28 +1729,26 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="10"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
@@ -1871,113 +1757,63 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="5">
         <v>123</v>
       </c>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="5">
-        <v>123</v>
-      </c>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="15"/>
-    </row>
-    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="15"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="15"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="16"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="I4:I47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
+++ b/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157BA599-C167-4A29-96CF-2B6030471A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF9907-1063-4D34-8354-B6A451E726E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="3240" windowWidth="28800" windowHeight="15555" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스 규격 0.1" sheetId="4" r:id="rId1"/>
@@ -529,14 +529,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1106,16 +1106,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1127,13 +1127,13 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="G32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="11" t="s">
         <v>88</v>
       </c>
     </row>

--- a/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
+++ b/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF9907-1063-4D34-8354-B6A451E726E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D696EDA-E70A-4B70-B37F-986F91C308D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="3240" windowWidth="28800" windowHeight="15555" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
+    <workbookView xWindow="38280" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스 규격 0.1" sheetId="4" r:id="rId1"/>
@@ -156,15 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개별:  List 속성 =&gt;containers[]
-통합: 단순속성 =&gt; 제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨테이너이름: 단순속성이면 제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포맷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,7 +368,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>API 결과중 선택된 level값</t>
+    <t>API 결과중 선택된 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json 샘플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "version": 0.12,
+    "request": {
+        "name": "{{hy_generated_name}}",
+        "id": "{{hy_generated_uuid}}",
+        "date": "{{hy_currentDate}}",
+        "containers": [
+            {
+                "name": "keti-ml-workload-inference",
+                "resources": {
+                    "requests": {
+                        "cpu": "2",
+                        "memory": "700Mi"
+                    },
+                    "limits": {
+                        "cpu": "4",
+                        "memory": "800Mi",
+                        "gpu": "1"
+                    }
+                },
+                "attribute": {
+                    "maxReplicas": 1,
+                    "totalSize": 875,
+                    "predictedExecutionTime": 599,
+                    "order": 3
+                }
+            },
+            {
+                "name": "keti-ml-workload-preprocess",
+                "resources": {
+                    "requests": {
+                        "cpu": "3",
+                        "memory": "800Mi"
+                    },
+                    "limits": {
+                        "cpu": "4",
+                        "memory": "900Mi"
+                    }
+                },
+                "attribute": {
+                    "maxReplicas": 1,
+                    "totalSize": 875,
+                    "predictedExecutionTime": 599,
+                    "order": 1
+                }
+            },
+            {
+                "name": "keti-ml-workload-train",
+                "resources": {
+                    "requests": {
+                        "cpu": "2",
+                        "memory": "700Mi"
+                    },
+                    "limits": {
+                        "cpu": "3",
+                        "memory": "1000Mi",
+                        "gpu": "1"
+                    }
+                },
+                "attribute": {
+                    "maxReplicas": 1,
+                    "totalSize": 875,
+                    "predictedExecutionTime": 599,
+                    "order": 2
+                }
+            }
+        ],
+        "attribute": {
+            "workloadType": "ML",
+            "isCronJob": true,
+            "devOpsType": "DEV",
+            "cudaVersion": 342.12,
+            "gpuDriverVersion": 12.34,
+            "userId": "dmkim",
+            "yaml": "CmFwaVZlcn..."
+        }
+    }
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,15 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -440,6 +507,31 @@
       <name val="Bitstream Vera Sans Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -450,12 +542,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -489,13 +581,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,16 +609,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -526,16 +624,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,7 +669,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1087,733 +1197,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B565A37C-2E95-462B-A7DF-C3508ECBB9CB}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="B1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="J3" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="J4" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="I8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="5">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="4">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="5">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="5">
+        <v>41</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="5">
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="5">
+      <c r="G18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="4">
         <v>256</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="5">
+      <c r="G19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="5">
+      <c r="G20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="5">
+        <v>51</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="5">
+        <v>48</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="5">
+        <v>49</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="4">
         <v>600</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="2:10" ht="27" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="I28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="4">
+        <v>12</v>
+      </c>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="4">
+        <v>534.12</v>
+      </c>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="5">
-        <v>534.12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="I32" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="5">
+        <v>73</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="4">
         <v>123</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="2"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="9"/>
-      <c r="C40" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="8"/>
+      <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="4">
+        <v>123</v>
+      </c>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="5"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:E3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="J4:J44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
+++ b/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D696EDA-E70A-4B70-B37F-986F91C308D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B443D11-A83A-4348-B179-7785B2B5B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
+    <workbookView xWindow="-38520" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스 규격 0.1" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,6 +454,14 @@
         }
     }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크포인트 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,23 +638,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B565A37C-2E95-462B-A7DF-C3508ECBB9CB}">
-  <dimension ref="B1:J44"/>
+  <dimension ref="B1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1217,16 +1225,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
@@ -1245,16 +1253,16 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1275,7 +1283,7 @@
       <c r="I4" s="4">
         <v>0.1</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="15" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1290,7 +1298,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
@@ -1309,7 +1317,7 @@
       <c r="I6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -1328,7 +1336,7 @@
       <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
@@ -1347,7 +1355,7 @@
       <c r="I8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -1360,7 +1368,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
@@ -1377,7 +1385,7 @@
       <c r="I10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -1390,7 +1398,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
@@ -1403,7 +1411,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -1422,7 +1430,7 @@
       <c r="I13" s="4">
         <v>100</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
@@ -1441,7 +1449,7 @@
       <c r="I14" s="4">
         <v>128</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -1460,7 +1468,7 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
@@ -1479,7 +1487,7 @@
       <c r="I16" s="4">
         <v>1000</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -1498,7 +1506,7 @@
       <c r="I17" s="4">
         <v>200</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
@@ -1515,7 +1523,7 @@
       <c r="I18" s="4">
         <v>256</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
@@ -1532,7 +1540,7 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="J19" s="13"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
@@ -1549,7 +1557,7 @@
       <c r="I20" s="4">
         <v>2000</v>
       </c>
-      <c r="J20" s="13"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
@@ -1562,7 +1570,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="13"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
@@ -1581,7 +1589,7 @@
       <c r="I22" s="4">
         <v>10</v>
       </c>
-      <c r="J22" s="13"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
@@ -1600,7 +1608,7 @@
       <c r="I23" s="4">
         <v>500</v>
       </c>
-      <c r="J23" s="13"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
@@ -1619,355 +1627,374 @@
       <c r="I24" s="4">
         <v>600</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="2:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="2:10" ht="27" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="2:10" ht="27" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="4">
-        <v>12</v>
-      </c>
-      <c r="J29" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I30" s="4">
-        <v>534.12</v>
-      </c>
-      <c r="J30" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="I31" s="4">
+        <v>534.12</v>
+      </c>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="13"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="13"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="13"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="4">
-        <v>123</v>
-      </c>
-      <c r="J37" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="13"/>
+      <c r="I38" s="4">
+        <v>123</v>
+      </c>
+      <c r="J38" s="16"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="13"/>
+      <c r="J39" s="16"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
-      <c r="C40" s="8"/>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
+      <c r="C40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J40" s="13"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="16"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>53</v>
+      <c r="C41" s="8"/>
+      <c r="D41" t="s">
+        <v>2</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I41" s="4">
-        <v>123</v>
-      </c>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="4">
+        <v>123</v>
+      </c>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="2:10" ht="27" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="13"/>
+      <c r="G44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="J4:J44"/>
+    <mergeCell ref="J4:J45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
+++ b/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B443D11-A83A-4348-B179-7785B2B5B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C9237D-D938-4021-88DE-89C1C0943BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
+    <workbookView xWindow="3795" yWindow="3630" windowWidth="28800" windowHeight="15555" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스 규격 0.1" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,10 +257,6 @@
   </si>
   <si>
     <t>abcdefg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ML(머신러닝), DL(딥러닝), INF(추론)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -274,11 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum 
-ML|DL|INF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,11 +307,6 @@
   </si>
   <si>
     <t>API에서 제공하는 클러스터 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>criticalPriority|highPriority|
-mediumPriority|lowPriority|veryLowPriority</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,6 +450,42 @@
     <t>체크포인트 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expStartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상시작시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML 워크로드 실행순서
+최초 실행순서 : 1, 
+병렬처리: 동일한 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML(머신러닝), DL(딥러닝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum 
+ML|DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean(미사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyCriticalPriority|hyHighPriority|
+hyMediumPriority|hyLowPriority|hyVeryLowPriority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -541,7 +563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +573,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,6 +671,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B565A37C-2E95-462B-A7DF-C3508ECBB9CB}">
-  <dimension ref="B1:J45"/>
+  <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1225,16 +1262,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
@@ -1246,13 +1283,13 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1300,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1283,8 +1320,8 @@
       <c r="I4" s="4">
         <v>0.1</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>88</v>
+      <c r="J4" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -1298,7 +1335,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="16"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
@@ -1317,7 +1354,7 @@
       <c r="I6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -1336,7 +1373,7 @@
       <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
@@ -1353,9 +1390,9 @@
         <v>32</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -1368,7 +1405,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
@@ -1385,7 +1422,7 @@
       <c r="I10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -1398,7 +1435,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
@@ -1411,7 +1448,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -1430,7 +1467,7 @@
       <c r="I13" s="4">
         <v>100</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
@@ -1449,7 +1486,7 @@
       <c r="I14" s="4">
         <v>128</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -1468,7 +1505,7 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
@@ -1487,7 +1524,7 @@
       <c r="I16" s="4">
         <v>1000</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -1506,7 +1543,7 @@
       <c r="I17" s="4">
         <v>200</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
@@ -1523,7 +1560,7 @@
       <c r="I18" s="4">
         <v>256</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
@@ -1540,7 +1577,7 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
@@ -1557,20 +1594,20 @@
       <c r="I20" s="4">
         <v>2000</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
@@ -1589,7 +1626,7 @@
       <c r="I22" s="4">
         <v>10</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
@@ -1608,7 +1645,7 @@
       <c r="I23" s="4">
         <v>500</v>
       </c>
-      <c r="J23" s="16"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
@@ -1627,31 +1664,31 @@
       <c r="I24" s="4">
         <v>600</v>
       </c>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="2:10" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="16"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1</v>
+      </c>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1659,7 +1696,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="16"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" ht="27" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
@@ -1670,15 +1707,15 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="16"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
@@ -1689,34 +1726,34 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J28" s="16"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" ht="27" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="16"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
@@ -1735,7 +1772,7 @@
       <c r="I30" s="4">
         <v>12</v>
       </c>
-      <c r="J30" s="16"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
@@ -1754,13 +1791,13 @@
       <c r="I31" s="4">
         <v>534.12</v>
       </c>
-      <c r="J31" s="16"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1773,228 +1810,253 @@
       <c r="I32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="16"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="16"/>
+      <c r="D34" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="16"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="16"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="16"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="4">
-        <v>123</v>
-      </c>
-      <c r="J38" s="16"/>
+        <v>67</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="16"/>
+      <c r="I39" s="4">
+        <v>123</v>
+      </c>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="16"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
-      <c r="C41" s="8"/>
-      <c r="D41" t="s">
-        <v>2</v>
-      </c>
+      <c r="C41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J41" s="16"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="19"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>53</v>
+      <c r="C42" s="8"/>
+      <c r="D42" t="s">
+        <v>2</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="4">
-        <v>123</v>
-      </c>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="4">
+        <v>123</v>
+      </c>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="2:10" ht="27" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="16"/>
+      <c r="G45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="J4:J45"/>
+    <mergeCell ref="J4:J46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
+++ b/HybridDeployOptimizer/doc/interface/스케줄링정책_인터페이스_규격.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C9237D-D938-4021-88DE-89C1C0943BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4275B596-BF49-49BE-B198-C70F9BFE0EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="3630" windowWidth="28800" windowHeight="15555" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
+    <workbookView xWindow="-71520" yWindow="3060" windowWidth="28800" windowHeight="15555" xr2:uid="{040E937D-6307-4837-863D-1E2A02C3E70D}"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스 규격 0.1" sheetId="4" r:id="rId1"/>
@@ -34,8 +34,244 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kljang</author>
+  </authors>
+  <commentList>
+    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{1BE50F13-EDD6-49DB-A8EA-9C7D1619A174}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kljang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배포할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>노드가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대비해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넣었는데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상시작시간을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넣었음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>협의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,9 +324,6 @@
     <t>limits</t>
   </si>
   <si>
-    <t>isCronJob</t>
-  </si>
-  <si>
     <t>maxReplicas</t>
   </si>
   <si>
@@ -257,16 +490,6 @@
   </si>
   <si>
     <t>abcdefg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum 
-PreemptLowerPriority|Never</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum 
-DEV|TEST|PROD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -473,17 +696,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum 
-ML|DL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boolean(미사용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hyCriticalPriority|hyHighPriority|
 hyMediumPriority|hyLowPriority|hyVeryLowPriority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCronJob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">enum 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ML|DL</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">enum 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEV|TEST|PROD</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">enum 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PreemptLowerPriority|Never</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +774,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,11 +817,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Bitstream Vera Sans Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -562,8 +840,68 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0070C0"/>
+      <name val="Bitstream Vera Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,6 +917,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,38 +1004,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,6 +1305,10 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1241,14 +1607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B565A37C-2E95-462B-A7DF-C3508ECBB9CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B565A37C-2E95-462B-A7DF-C3508ECBB9CB}">
   <dimension ref="B1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
@@ -1261,19 +1627,19 @@
     <col min="10" max="10" width="37.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="39" customHeight="1">
+      <c r="B1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="2:10">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1282,28 +1648,28 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1312,19 +1678,19 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="4">
         <v>0.1</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1335,9 +1701,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1346,17 +1712,17 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1365,17 +1731,17 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1384,20 +1750,20 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1405,9 +1771,9 @@
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -1417,14 +1783,14 @@
       <c r="F10" s="2"/>
       <c r="G10" s="6"/>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -1435,22 +1801,22 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1459,17 +1825,17 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="4">
         <v>100</v>
       </c>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1478,17 +1844,17 @@
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="4">
         <v>128</v>
       </c>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1497,17 +1863,17 @@
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1516,17 +1882,17 @@
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="4">
         <v>1000</v>
       </c>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1537,15 +1903,15 @@
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="4">
         <v>200</v>
       </c>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1554,15 +1920,15 @@
         <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="4">
         <v>256</v>
       </c>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1571,15 +1937,15 @@
         <v>13</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1588,107 +1954,107 @@
         <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="4">
         <v>2000</v>
       </c>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="4">
         <v>10</v>
       </c>
-      <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="4">
         <v>500</v>
       </c>
-      <c r="J23" s="19"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="4">
         <v>600</v>
       </c>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="2:10" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:10" ht="40.5">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="15">
+      <c r="H25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="25">
         <v>1</v>
       </c>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1696,180 +2062,180 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="2:10" ht="27">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="4" t="b">
+      <c r="D28" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="2:10" ht="27">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="19"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" s="4">
         <v>12</v>
       </c>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="4">
         <v>534.12</v>
       </c>
-      <c r="J31" s="19"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="19"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="15" t="b">
+      <c r="D34" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="J34" s="19"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="19"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1878,80 +2244,80 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="19"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="19"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="19"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I39" s="4">
         <v>123</v>
       </c>
-      <c r="J39" s="19"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="19"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1959,9 +2325,9 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="19"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="2"/>
       <c r="C42" s="8"/>
       <c r="D42" t="s">
@@ -1970,87 +2336,89 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J42" s="19"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I43" s="4">
         <v>123</v>
       </c>
-      <c r="J43" s="19"/>
-    </row>
-    <row r="44" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="2:10" ht="37.5" customHeight="1">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>95</v>
+        <v>53</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="19"/>
-    </row>
-    <row r="45" spans="2:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="2:10" ht="27">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J45" s="19"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="19"/>
+      <c r="D46" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J46" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2062,6 +2430,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2073,7 +2442,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
